--- a/medicine/Pharmacie/Lorazépam/Lorazépam.xlsx
+++ b/medicine/Pharmacie/Lorazépam/Lorazépam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loraz%C3%A9pam</t>
+          <t>Lorazépam</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le lorazépam est une molécule anxiolytique de la classe des benzodiazépines de durée d'action intermédiaire, sa demi-vie d'élimination étant de 12 à 16 heures. Il est souvent commercialisé sous le nom de Témesta ou Ativan. On l'utilise pour traiter l'anxiété, l'angoisse, les crises comitiales, la phobie sociale et l'insomnie.
-Il s'agit d'une des benzodiazépines anxiolytiques les plus difficilement prescrites sur le marché, contrairement à ses cousins le Lexomil et le Xanax en France, ou le clonazépam en Amérique. Développé à l'origine par Wyeth[5] dans les années 1960, il est maintenant produit par de nombreux laboratoires dans le monde.
+Il s'agit d'une des benzodiazépines anxiolytiques les plus difficilement prescrites sur le marché, contrairement à ses cousins le Lexomil et le Xanax en France, ou le clonazépam en Amérique. Développé à l'origine par Wyeth dans les années 1960, il est maintenant produit par de nombreux laboratoires dans le monde.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loraz%C3%A9pam</t>
+          <t>Lorazépam</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>Posologie et utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux États-Unis et au Canada, le lorazépam est commercialisé sous le nom d'Ativan avec des doses de 0,5 mg, 1 mg et 2 mg par comprimé pris de manière orale ou sublinguale[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux États-Unis et au Canada, le lorazépam est commercialisé sous le nom d'Ativan avec des doses de 0,5 mg, 1 mg et 2 mg par comprimé pris de manière orale ou sublinguale. 
 En France, il est disponible sous forme de comprimés sécables dosés à 1 milligramme ou 2,5 milligrammes.
 Il s'agit d'une molécule qui peut être utilisée comme anxiolytique, hypnotique, sédatif, myorelaxant, anticonvulsivant, et amnésiant. Cependant, son indication principale est la thérapie anxiolytique médicamenteuse[réf. nécessaire].
-Dans le traitement de l'anxiété invalidante, la posologie initiale se situe généralement autour de 3 mg par jour en 3 prises[7]. 
-Le lorazépam peut également être prescrit dans le cadre d'un sevrage alcoolique[8]. Il est utilisé en forme injectable dans les crises d'épilepsie. Hors autorisation de mise sur le marché, en raison de sa puissance d'action hypnotique et sédative, le lorazépam est également utilisé pour traiter l'insomnie. Il est d'ailleurs le métabolite actif du lormétazépam, lui-même utilisé dans ce cadre[9]. Sa demi-vie moyenne lui permet de durer toute une nuit mais risque de conserver un certain effet hypnotique le jour suivant si pris à forte dose.
-Comme tous les médicaments de cette classe, il est inscrit sur Liste I et sur la liste des psychotropes ; sa prescription est limitée à 12 semaines. Le choix de la posologie minimale efficace sera toujours recherché, bien que son dosage maximal soit de 7,5 mg/J. Il arrive cependant que des dosages supérieurs soient prescrits (surtout si utilisé dans le cadre d’un sevrage éthylique). Le lorazépam fait partie des produits les plus puissants de sa classe, en particulier en comprimés de 2,5 mg. Sur ce terrain, il est utilisé au même titre que l'alprazolam, mais dans des cas où une action plus prolongée et progressive est souhaitée. Il est sur la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013) malgré ses effets secondaires[10]. Il y est toutefois listé seulement en tant qu'anticonvulsivant.
+Dans le traitement de l'anxiété invalidante, la posologie initiale se situe généralement autour de 3 mg par jour en 3 prises. 
+Le lorazépam peut également être prescrit dans le cadre d'un sevrage alcoolique. Il est utilisé en forme injectable dans les crises d'épilepsie. Hors autorisation de mise sur le marché, en raison de sa puissance d'action hypnotique et sédative, le lorazépam est également utilisé pour traiter l'insomnie. Il est d'ailleurs le métabolite actif du lormétazépam, lui-même utilisé dans ce cadre. Sa demi-vie moyenne lui permet de durer toute une nuit mais risque de conserver un certain effet hypnotique le jour suivant si pris à forte dose.
+Comme tous les médicaments de cette classe, il est inscrit sur Liste I et sur la liste des psychotropes ; sa prescription est limitée à 12 semaines. Le choix de la posologie minimale efficace sera toujours recherché, bien que son dosage maximal soit de 7,5 mg/J. Il arrive cependant que des dosages supérieurs soient prescrits (surtout si utilisé dans le cadre d’un sevrage éthylique). Le lorazépam fait partie des produits les plus puissants de sa classe, en particulier en comprimés de 2,5 mg. Sur ce terrain, il est utilisé au même titre que l'alprazolam, mais dans des cas où une action plus prolongée et progressive est souhaitée. Il est sur la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013) malgré ses effets secondaires. Il y est toutefois listé seulement en tant qu'anticonvulsivant.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Loraz%C3%A9pam</t>
+          <t>Lorazépam</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,10 +563,12 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pic plasmatique du lorazépam est atteint à une vitesse intermédiaire (entre 30 minutes et 4 heures, 2 heures en moyenne[11],[12]). Sa demi-vie d'élimination gravite autour de 13h selon les patients[13],[14],[15]. On estime que 1 mg de lorazépam équivaut à 10 mg de diazépam.
-Tout comme les nombreux produits apparentés, le lorazépam influence l'action du GABA en renforçant l'activité des récepteurs GABA-A-alpha[16], activés de manière naturelle par le corps. On parle alors d'un modulateur allostérique positif. Contrairement au barbital, ce produit n'est pas un agoniste de ces récepteurs et ne fait que renforcer leur activité lors de leur activation naturelle[17] (ou bien par le fait d'un autre agoniste, comme l'alcool) ce qui limite quelque peu les risques de surdosage.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pic plasmatique du lorazépam est atteint à une vitesse intermédiaire (entre 30 minutes et 4 heures, 2 heures en moyenne,). Sa demi-vie d'élimination gravite autour de 13h selon les patients. On estime que 1 mg de lorazépam équivaut à 10 mg de diazépam.
+Tout comme les nombreux produits apparentés, le lorazépam influence l'action du GABA en renforçant l'activité des récepteurs GABA-A-alpha, activés de manière naturelle par le corps. On parle alors d'un modulateur allostérique positif. Contrairement au barbital, ce produit n'est pas un agoniste de ces récepteurs et ne fait que renforcer leur activité lors de leur activation naturelle (ou bien par le fait d'un autre agoniste, comme l'alcool) ce qui limite quelque peu les risques de surdosage.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Loraz%C3%A9pam</t>
+          <t>Lorazépam</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,12 +597,14 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets indésirables à déplorer sont les mêmes que pour les autres produits de sa classe, avec notamment une certaine somnolence, ainsi que des pertes de mémoire (affectant surtout la mémoire épisodique et la mémoire sémantique)[17],[18]. Les risques de rencontrer ces complications varient de façon notoire en fonction des doses et d'un potentiel mélange avec d'autres produits, notamment l'alcool. Les formulations à 2 mg ou 2,5 mg se démarquent des autres par la puissance de leurs effets amnésiants[12].
-Son utilisation en journée peut rendre inapte à l'utilisation de véhicules ou d'outils dangereux (surtout au début du traitement), notamment car les benzodiazépines augmentent les temps de réaction[19]. Il est recommandé de demander l'avis d'un médecin pour la reprise de telles activités.
-S'il est utilisé sur le long terme et a fortiori en grandes quantités, il peut mener à une tolérance et une dépendance non négligeable. Utilisé en quantités limitées et une seule fois par jour[20], ou uniquement occasionnellement[21], il présente toutefois un profil addictogène réduit.
-Une étude récente a mis en exergue le rôle possible de certaines benzodiazépines dans le développement de la maladie d'Alzheimer[22]. Toutefois, les résultats contradictoires d'études subséquentes permettent de douter de leur rôle dans l'apparition des symptômes de cette maladie (ou dans le développement de cancers)[23],[24]. Des recherches plus approfondies seront nécessaires pour statuer sur le rôle de ces médicaments vis-à-vis des cas de démence ou de certains cancers[25].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets indésirables à déplorer sont les mêmes que pour les autres produits de sa classe, avec notamment une certaine somnolence, ainsi que des pertes de mémoire (affectant surtout la mémoire épisodique et la mémoire sémantique),. Les risques de rencontrer ces complications varient de façon notoire en fonction des doses et d'un potentiel mélange avec d'autres produits, notamment l'alcool. Les formulations à 2 mg ou 2,5 mg se démarquent des autres par la puissance de leurs effets amnésiants.
+Son utilisation en journée peut rendre inapte à l'utilisation de véhicules ou d'outils dangereux (surtout au début du traitement), notamment car les benzodiazépines augmentent les temps de réaction. Il est recommandé de demander l'avis d'un médecin pour la reprise de telles activités.
+S'il est utilisé sur le long terme et a fortiori en grandes quantités, il peut mener à une tolérance et une dépendance non négligeable. Utilisé en quantités limitées et une seule fois par jour, ou uniquement occasionnellement, il présente toutefois un profil addictogène réduit.
+Une étude récente a mis en exergue le rôle possible de certaines benzodiazépines dans le développement de la maladie d'Alzheimer. Toutefois, les résultats contradictoires d'études subséquentes permettent de douter de leur rôle dans l'apparition des symptômes de cette maladie (ou dans le développement de cancers),. Des recherches plus approfondies seront nécessaires pour statuer sur le rôle de ces médicaments vis-à-vis des cas de démence ou de certains cancers.
 </t>
         </is>
       </c>
